--- a/biology/Médecine/Saut_d'exon/Saut_d'exon.xlsx
+++ b/biology/Médecine/Saut_d'exon/Saut_d'exon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saut_d%27exon</t>
+          <t>Saut_d'exon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le saut d'exon est une technique utilisée en thérapie génique. Elle consiste à agir sur une partie du code d'un gène comportant une erreur, en sautant un ou plusieurs exons lors de l'épissage, afin de permettre à une cellule de synthétiser une protéine manquante ou tronquée[1], mais fonctionnelle.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le saut d'exon est une technique utilisée en thérapie génique. Elle consiste à agir sur une partie du code d'un gène comportant une erreur, en sautant un ou plusieurs exons lors de l'épissage, afin de permettre à une cellule de synthétiser une protéine manquante ou tronquée, mais fonctionnelle.
 Le saut d’exon peut être induit dans la cellule via différents outils, par des vecteurs viraux, par des ADN / ARN antisens, etc.
-Cette technique est utilisée notamment sur le gène codant la dystrophine, dont la mutation cause la myopathie de Duchenne[2].
+Cette technique est utilisée notamment sur le gène codant la dystrophine, dont la mutation cause la myopathie de Duchenne.
 </t>
         </is>
       </c>
